--- a/DDAf_2023_Tableau_annexe_Tab25.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab25.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab25" sheetId="1" r:id="rId1"/>
@@ -2533,7 +2533,7 @@
         <v>27.64772265625</v>
       </c>
       <c r="T13" s="26">
-        <v>70.379202370507798</v>
+        <v>70.379202270507804</v>
       </c>
       <c r="U13" s="26">
         <v>33.299744140625002</v>
@@ -7697,7 +7697,7 @@
         <v>707411.78873806796</v>
       </c>
       <c r="N66" s="42">
-        <v>479783.20234627702</v>
+        <v>479783.20224627701</v>
       </c>
       <c r="O66" s="42">
         <v>811484.64649792504</v>
@@ -9221,7 +9221,7 @@
         <v>11003.893985214199</v>
       </c>
       <c r="J82" s="39">
-        <v>2818.20236208496</v>
+        <v>2818.2022620849598</v>
       </c>
       <c r="K82" s="39">
         <v>2855.3476983032201</v>
@@ -10010,7 +10010,7 @@
         <v>197031.28876702901</v>
       </c>
       <c r="Q90" s="42">
-        <v>20234.575906341601</v>
+        <v>20224.575906341601</v>
       </c>
       <c r="R90" s="42">
         <v>9040.9414547195502</v>

--- a/DDAf_2023_Tableau_annexe_Tab25.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{659C4EE1-71F8-4DFA-A568-D36B3C40D505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7604BBF9-B017-4753-AAF2-110D4F15F7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{7D4639F7-CCCF-4E2C-A118-FFD5B0C2F611}"/>
+    <workbookView xWindow="29940" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{37211CE1-C399-4CEB-9B27-334999DC7EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab25" sheetId="1" r:id="rId1"/>
@@ -1259,7 +1259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABDFF13-B6F2-4829-B63E-AF652272ACA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F723FDD-EEA4-4D12-A14F-8FAA5206B92B}">
   <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -5437,11 +5437,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{2955555E-1283-4E85-B879-AEB04D7DE98F}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{96446B4C-D6AF-4A16-80B6-01F0A83AFAFB}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{7965B0D8-2DE9-4C7F-AA21-16231CD55693}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{5B5B177B-5A2B-46F9-AF19-C81AEC6AA15A}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{5C70036D-4C0A-492C-8215-BD9DC518B654}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{335E4AFC-38C9-4277-8566-67CA2A84E636}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{BCB5DFAF-6E2A-4E9D-82AA-CD94161A8CD3}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{5257381D-1D66-4277-AFBE-5E820A82AD94}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{53A575B9-339F-4E33-9918-95F95D3D8816}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{B591D844-46C9-402B-B2C8-16503D5819EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab25.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7604BBF9-B017-4753-AAF2-110D4F15F7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0974A279-57AA-4653-B6EA-EF75D36557CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29940" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{37211CE1-C399-4CEB-9B27-334999DC7EC4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9D7396AC-48E3-4B9F-BECA-39D42DC84015}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab25" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab25'!$A$1:$E$103</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -269,7 +269,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud</t>
+    <t>Soudan du Sud*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -347,7 +347,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CIV</t>
@@ -401,7 +401,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -1259,7 +1259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F723FDD-EEA4-4D12-A14F-8FAA5206B92B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EC0C5D-748F-4FBD-B86F-9A485B776537}">
   <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -2604,40 +2604,40 @@
       <c r="A34" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="23">
         <v>1830.7</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="24">
         <v>238</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="24">
         <v>29.4</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="24">
         <v>917.5</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="24">
         <v>80</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="24">
         <v>12.7</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="24">
         <v>81.8</v>
       </c>
-      <c r="J34" s="14">
-        <v>0</v>
-      </c>
-      <c r="K34" s="14">
-        <v>0</v>
-      </c>
-      <c r="L34" s="14">
+      <c r="J34" s="24">
+        <v>0</v>
+      </c>
+      <c r="K34" s="24">
+        <v>0</v>
+      </c>
+      <c r="L34" s="24">
         <v>908.4</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="23">
         <v>471.3</v>
       </c>
     </row>
@@ -3547,40 +3547,40 @@
       <c r="A57" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="16">
         <v>128450.5</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="17">
         <v>11931.5</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="17">
         <v>7665.2</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="17">
         <v>52555.3</v>
       </c>
-      <c r="G57" s="24">
+      <c r="G57" s="17">
         <v>41258.199999999997</v>
       </c>
-      <c r="H57" s="24">
+      <c r="H57" s="17">
         <v>949</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="17">
         <v>14.3</v>
       </c>
-      <c r="J57" s="24">
-        <v>0</v>
-      </c>
-      <c r="K57" s="24">
+      <c r="J57" s="17">
+        <v>0</v>
+      </c>
+      <c r="K57" s="17">
         <v>527.5</v>
       </c>
-      <c r="L57" s="24">
+      <c r="L57" s="17">
         <v>51621.5</v>
       </c>
-      <c r="M57" s="23">
+      <c r="M57" s="16">
         <v>13549.4</v>
       </c>
     </row>
@@ -4025,25 +4025,25 @@
         <v>136</v>
       </c>
       <c r="C69" s="35">
-        <v>50555</v>
+        <v>59157.599999999999</v>
       </c>
       <c r="D69" s="36">
         <v>238</v>
       </c>
       <c r="E69" s="36">
-        <v>6700</v>
+        <v>6732.6</v>
       </c>
       <c r="F69" s="36">
-        <v>22999.5</v>
+        <v>25377.1</v>
       </c>
       <c r="G69" s="36">
-        <v>14154.8</v>
+        <v>20259.3</v>
       </c>
       <c r="H69" s="36">
         <v>842.1</v>
       </c>
       <c r="I69" s="36">
-        <v>1144</v>
+        <v>1219.0999999999999</v>
       </c>
       <c r="J69" s="36">
         <v>107</v>
@@ -4052,10 +4052,10 @@
         <v>142.80000000000001</v>
       </c>
       <c r="L69" s="36">
-        <v>22342.2</v>
+        <v>24410.5</v>
       </c>
       <c r="M69" s="35">
-        <v>4227.1000000000004</v>
+        <v>4239.8999999999996</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
@@ -4337,22 +4337,22 @@
         <v>143</v>
       </c>
       <c r="C77" s="35">
-        <v>885332.9</v>
+        <v>830120.7</v>
       </c>
       <c r="D77" s="36">
-        <v>69410.7</v>
+        <v>56200.9</v>
       </c>
       <c r="E77" s="36">
-        <v>155588.70000000001</v>
+        <v>147189.4</v>
       </c>
       <c r="F77" s="36">
-        <v>364650.6</v>
+        <v>340511.9</v>
       </c>
       <c r="G77" s="36">
-        <v>66269.600000000006</v>
+        <v>64560.7</v>
       </c>
       <c r="H77" s="36">
-        <v>10496.6</v>
+        <v>9861.9</v>
       </c>
       <c r="I77" s="36">
         <v>33641</v>
@@ -4364,10 +4364,10 @@
         <v>5637.2</v>
       </c>
       <c r="L77" s="36">
-        <v>340949.8</v>
+        <v>317014.7</v>
       </c>
       <c r="M77" s="35">
-        <v>178686.9</v>
+        <v>171566.2</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
@@ -4454,37 +4454,37 @@
         <v>145</v>
       </c>
       <c r="C80" s="41">
-        <v>337696.3</v>
+        <v>211076.5</v>
       </c>
       <c r="D80" s="42">
-        <v>25677.3</v>
+        <v>13983.8</v>
       </c>
       <c r="E80" s="42">
-        <v>28002.2</v>
+        <v>20366.400000000001</v>
       </c>
       <c r="F80" s="42">
-        <v>121806.8</v>
+        <v>70169</v>
       </c>
       <c r="G80" s="42">
-        <v>73331</v>
+        <v>32152.799999999999</v>
       </c>
       <c r="H80" s="42">
-        <v>3222</v>
+        <v>2285.6999999999998</v>
       </c>
       <c r="I80" s="42">
-        <v>379.2</v>
+        <v>446.7</v>
       </c>
       <c r="J80" s="42">
         <v>0</v>
       </c>
       <c r="K80" s="42">
-        <v>5166.3999999999996</v>
+        <v>4638.8999999999996</v>
       </c>
       <c r="L80" s="42">
-        <v>118294.7</v>
+        <v>67581.600000000006</v>
       </c>
       <c r="M80" s="41">
-        <v>80110.600000000006</v>
+        <v>67032.5</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
@@ -4532,37 +4532,37 @@
         <v>147</v>
       </c>
       <c r="C82" s="35">
-        <v>912980.4</v>
+        <v>1039600.2</v>
       </c>
       <c r="D82" s="36">
-        <v>71880.3</v>
+        <v>83573.8</v>
       </c>
       <c r="E82" s="36">
-        <v>119735.8</v>
+        <v>127371.6</v>
       </c>
       <c r="F82" s="36">
-        <v>221020.9</v>
+        <v>272658.7</v>
       </c>
       <c r="G82" s="36">
-        <v>94755.9</v>
+        <v>135934.1</v>
       </c>
       <c r="H82" s="36">
-        <v>10976</v>
+        <v>11912.3</v>
       </c>
       <c r="I82" s="36">
-        <v>14711.1</v>
+        <v>14643.6</v>
       </c>
       <c r="J82" s="36">
         <v>535.29999999999995</v>
       </c>
       <c r="K82" s="36">
-        <v>5243.9</v>
+        <v>5771.4</v>
       </c>
       <c r="L82" s="36">
-        <v>211926.6</v>
+        <v>262639.7</v>
       </c>
       <c r="M82" s="35">
-        <v>374115.6</v>
+        <v>387193.7</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4610,37 +4610,37 @@
         <v>149</v>
       </c>
       <c r="C84" s="41">
-        <v>108300.2</v>
+        <v>116847.6</v>
       </c>
       <c r="D84" s="42">
-        <v>652.6</v>
+        <v>672.9</v>
       </c>
       <c r="E84" s="42">
-        <v>14138.4</v>
+        <v>15550.9</v>
       </c>
       <c r="F84" s="42">
-        <v>43398.9</v>
+        <v>45945.599999999999</v>
       </c>
       <c r="G84" s="42">
-        <v>31131.200000000001</v>
+        <v>32848.9</v>
       </c>
       <c r="H84" s="42">
-        <v>2338.1</v>
+        <v>2409.3000000000002</v>
       </c>
       <c r="I84" s="42">
-        <v>1463.9</v>
+        <v>1584.3</v>
       </c>
       <c r="J84" s="42">
         <v>107</v>
       </c>
       <c r="K84" s="42">
-        <v>1619.5</v>
+        <v>1866.5</v>
       </c>
       <c r="L84" s="42">
-        <v>42024.4</v>
+        <v>44570.5</v>
       </c>
       <c r="M84" s="41">
-        <v>13446.4</v>
+        <v>15857.9</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
@@ -4688,37 +4688,37 @@
         <v>151</v>
       </c>
       <c r="C86" s="35">
-        <v>688523.1</v>
+        <v>679975.7</v>
       </c>
       <c r="D86" s="36">
-        <v>40014</v>
+        <v>39993.699999999997</v>
       </c>
       <c r="E86" s="36">
-        <v>79302.5</v>
+        <v>77890</v>
       </c>
       <c r="F86" s="36">
-        <v>230085.8</v>
+        <v>227539.1</v>
       </c>
       <c r="G86" s="36">
-        <v>121202.5</v>
+        <v>119484.8</v>
       </c>
       <c r="H86" s="36">
-        <v>6387.1</v>
+        <v>6315.9</v>
       </c>
       <c r="I86" s="36">
-        <v>8558.1</v>
+        <v>8437.7000000000007</v>
       </c>
       <c r="J86" s="36">
         <v>240</v>
       </c>
       <c r="K86" s="36">
-        <v>6103</v>
+        <v>5856</v>
       </c>
       <c r="L86" s="36">
-        <v>222902.1</v>
+        <v>220356</v>
       </c>
       <c r="M86" s="35">
-        <v>196628.7</v>
+        <v>194217.2</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
@@ -4727,22 +4727,22 @@
         <v>152</v>
       </c>
       <c r="C87" s="35">
-        <v>4409905.2</v>
+        <v>4430047.9000000004</v>
       </c>
       <c r="D87" s="36">
         <v>136097</v>
       </c>
       <c r="E87" s="36">
-        <v>980986.4</v>
+        <v>981599.9</v>
       </c>
       <c r="F87" s="36">
-        <v>761119</v>
+        <v>767127.1</v>
       </c>
       <c r="G87" s="36">
-        <v>386776.4</v>
+        <v>387392.2</v>
       </c>
       <c r="H87" s="36">
-        <v>78046.7</v>
+        <v>78037.899999999994</v>
       </c>
       <c r="I87" s="36">
         <v>66041.399999999994</v>
@@ -4751,13 +4751,13 @@
         <v>491.1</v>
       </c>
       <c r="K87" s="36">
-        <v>45497.3</v>
+        <v>45546.2</v>
       </c>
       <c r="L87" s="36">
-        <v>704739.3</v>
+        <v>710764.5</v>
       </c>
       <c r="M87" s="35">
-        <v>1954770.6</v>
+        <v>1967633.5</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
@@ -4805,37 +4805,37 @@
         <v>154</v>
       </c>
       <c r="C89" s="35">
-        <v>14493191.800000001</v>
+        <v>14397124.1</v>
       </c>
       <c r="D89" s="36">
-        <v>539026.9</v>
+        <v>536319.80000000005</v>
       </c>
       <c r="E89" s="36">
-        <v>3608767.9</v>
+        <v>3593420.4</v>
       </c>
       <c r="F89" s="36">
-        <v>1965145.7</v>
+        <v>1936951.7</v>
       </c>
       <c r="G89" s="36">
-        <v>766431.3</v>
+        <v>756839.2</v>
       </c>
       <c r="H89" s="36">
-        <v>206036</v>
+        <v>203681.1</v>
       </c>
       <c r="I89" s="36">
-        <v>183297.8</v>
+        <v>181899.5</v>
       </c>
       <c r="J89" s="36">
-        <v>4526.3999999999996</v>
+        <v>4494.5</v>
       </c>
       <c r="K89" s="36">
-        <v>79006</v>
+        <v>78327.100000000006</v>
       </c>
       <c r="L89" s="36">
-        <v>1662298.5</v>
+        <v>1634659.6</v>
       </c>
       <c r="M89" s="35">
-        <v>7140962.0999999996</v>
+        <v>7105202</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4844,37 +4844,37 @@
         <v>155</v>
       </c>
       <c r="C90" s="38">
-        <v>10685858.699999999</v>
+        <v>10761783.699999999</v>
       </c>
       <c r="D90" s="39">
-        <v>741394.3</v>
+        <v>744101.4</v>
       </c>
       <c r="E90" s="39">
-        <v>1403535.5</v>
+        <v>1418269.5</v>
       </c>
       <c r="F90" s="39">
-        <v>3190284.5</v>
+        <v>3212470.4</v>
       </c>
       <c r="G90" s="39">
-        <v>838892.9</v>
+        <v>847869.2</v>
       </c>
       <c r="H90" s="39">
-        <v>479361.3</v>
+        <v>481725</v>
       </c>
       <c r="I90" s="39">
-        <v>134851</v>
+        <v>136249.29999999999</v>
       </c>
       <c r="J90" s="39">
-        <v>13290.9</v>
+        <v>13322.8</v>
       </c>
       <c r="K90" s="39">
-        <v>18418.599999999999</v>
+        <v>19048.599999999999</v>
       </c>
       <c r="L90" s="39">
-        <v>2858332.2</v>
+        <v>2879945.9</v>
       </c>
       <c r="M90" s="38">
-        <v>3865819</v>
+        <v>3888716.2</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
@@ -5000,22 +5000,22 @@
         <v>159</v>
       </c>
       <c r="C94" s="35">
-        <v>166977.20000000001</v>
+        <v>134730.29999999999</v>
       </c>
       <c r="D94" s="36">
-        <v>13762.4</v>
+        <v>10607.1</v>
       </c>
       <c r="E94" s="36">
-        <v>28796.2</v>
+        <v>26677.599999999999</v>
       </c>
       <c r="F94" s="36">
-        <v>31431.4</v>
+        <v>28042.3</v>
       </c>
       <c r="G94" s="36">
-        <v>5117.7</v>
+        <v>4901.7</v>
       </c>
       <c r="H94" s="36">
-        <v>1288.4000000000001</v>
+        <v>1255.0999999999999</v>
       </c>
       <c r="I94" s="36">
         <v>1565</v>
@@ -5027,10 +5027,10 @@
         <v>2204.9</v>
       </c>
       <c r="L94" s="36">
-        <v>27790.3</v>
+        <v>24485.1</v>
       </c>
       <c r="M94" s="35">
-        <v>82726.8</v>
+        <v>59392.2</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
@@ -5117,25 +5117,25 @@
         <v>162</v>
       </c>
       <c r="C97" s="41">
-        <v>384302.5</v>
+        <v>392794.4</v>
       </c>
       <c r="D97" s="42">
         <v>16051.5</v>
       </c>
       <c r="E97" s="42">
-        <v>38512.400000000001</v>
+        <v>39040.1</v>
       </c>
       <c r="F97" s="42">
-        <v>151997.70000000001</v>
+        <v>158338.20000000001</v>
       </c>
       <c r="G97" s="42">
-        <v>96620.800000000003</v>
+        <v>97349.6</v>
       </c>
       <c r="H97" s="42">
-        <v>6175.6</v>
+        <v>6502.7</v>
       </c>
       <c r="I97" s="42">
-        <v>3224.3</v>
+        <v>3286</v>
       </c>
       <c r="J97" s="42">
         <v>107</v>
@@ -5144,10 +5144,10 @@
         <v>2926.4</v>
       </c>
       <c r="L97" s="42">
-        <v>148652.6</v>
+        <v>154993.1</v>
       </c>
       <c r="M97" s="41">
-        <v>68680.399999999994</v>
+        <v>69186.600000000006</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5156,22 +5156,22 @@
         <v>163</v>
       </c>
       <c r="C98" s="38">
-        <v>1225638.5</v>
+        <v>1286621.1000000001</v>
       </c>
       <c r="D98" s="39">
-        <v>72985.399999999994</v>
+        <v>78152.3</v>
       </c>
       <c r="E98" s="39">
-        <v>235035.6</v>
+        <v>235885.6</v>
       </c>
       <c r="F98" s="39">
-        <v>294430</v>
+        <v>306949</v>
       </c>
       <c r="G98" s="39">
-        <v>184830.5</v>
+        <v>185299.4</v>
       </c>
       <c r="H98" s="39">
-        <v>26730.400000000001</v>
+        <v>40111.599999999999</v>
       </c>
       <c r="I98" s="39">
         <v>21271.7</v>
@@ -5180,13 +5180,13 @@
         <v>42</v>
       </c>
       <c r="K98" s="39">
-        <v>7737.3</v>
+        <v>19670.7</v>
       </c>
       <c r="L98" s="39">
-        <v>278396.7</v>
+        <v>286562.90000000002</v>
       </c>
       <c r="M98" s="38">
-        <v>382610.5</v>
+        <v>399272.9</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
@@ -5437,11 +5437,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{335E4AFC-38C9-4277-8566-67CA2A84E636}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{BCB5DFAF-6E2A-4E9D-82AA-CD94161A8CD3}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{5257381D-1D66-4277-AFBE-5E820A82AD94}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{53A575B9-339F-4E33-9918-95F95D3D8816}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{B591D844-46C9-402B-B2C8-16503D5819EE}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{79BE9513-819A-4150-9460-C4ADAF00C8F3}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{4A490964-A1FA-4358-8A73-0020CB5F934E}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{6D4366C5-5731-4A79-B79F-3E640843C1A2}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{AFB823A2-7307-4C81-A7B3-6F7EAE3E2A52}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{AD8398B0-2557-4F39-BD3A-D5A39615BF0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab25.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0974A279-57AA-4653-B6EA-EF75D36557CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F71B294A-F07D-4484-8159-12507018442A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9D7396AC-48E3-4B9F-BECA-39D42DC84015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E86F882F-0743-4261-97E6-45DDF9BE2061}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab25" sheetId="1" r:id="rId1"/>
@@ -1259,7 +1259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EC0C5D-748F-4FBD-B86F-9A485B776537}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9769CA0A-DC9D-4B92-8EF3-8FBF61C803DC}">
   <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -5437,11 +5437,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{79BE9513-819A-4150-9460-C4ADAF00C8F3}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{4A490964-A1FA-4358-8A73-0020CB5F934E}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{6D4366C5-5731-4A79-B79F-3E640843C1A2}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{AFB823A2-7307-4C81-A7B3-6F7EAE3E2A52}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{AD8398B0-2557-4F39-BD3A-D5A39615BF0B}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{251BD8F9-339B-49B8-93A2-E138F3C3A1F7}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{456BB6AB-A363-41F3-9379-1B7CCC7DCC38}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{EA81D699-E8FD-47B3-91E8-B5D13BA87A2F}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{847916D7-0442-4A54-938F-666E9423CBA8}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{1DDD2189-2CF9-4D77-AE57-571222ADADA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab25.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F71B294A-F07D-4484-8159-12507018442A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0912994E-3B14-42A2-A009-82415F319F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E86F882F-0743-4261-97E6-45DDF9BE2061}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{44DAFBA6-FB7C-4CAA-AA91-60BF7090E6E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab25" sheetId="1" r:id="rId1"/>
@@ -1259,7 +1259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9769CA0A-DC9D-4B92-8EF3-8FBF61C803DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D32AB8-019D-4ED5-9832-52E648BCFA96}">
   <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -5437,11 +5437,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{251BD8F9-339B-49B8-93A2-E138F3C3A1F7}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{456BB6AB-A363-41F3-9379-1B7CCC7DCC38}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{EA81D699-E8FD-47B3-91E8-B5D13BA87A2F}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{847916D7-0442-4A54-938F-666E9423CBA8}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{1DDD2189-2CF9-4D77-AE57-571222ADADA0}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{C0C69636-610E-44AF-88AB-8356C1919D91}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A636202A-C236-42C7-AC5F-5B7B019C0B61}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{A2E8A64D-227F-49AB-B62B-33900162331D}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{55B806C9-5147-4440-A08B-D12244987627}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{453E8DCB-001E-42E1-B1F5-837446ACC954}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab25.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0912994E-3B14-42A2-A009-82415F319F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F923EE2-EE4D-445E-86D9-975CBF33DE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{44DAFBA6-FB7C-4CAA-AA91-60BF7090E6E0}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{D194B819-591A-4DD9-949A-0E4ACF43C9F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab25" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="176">
   <si>
     <t>Tableau 25 : Émissions de GES par secteur</t>
   </si>
@@ -551,16 +551,19 @@
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
-  </si>
-  <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D32AB8-019D-4ED5-9832-52E648BCFA96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F7C092-5929-4FB5-86C1-CB8A1D683D62}">
   <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -5345,7 +5348,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C109" s="45"/>
       <c r="D109" s="45"/>
@@ -5361,7 +5364,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C110" s="45"/>
       <c r="D110" s="45"/>
@@ -5376,7 +5379,9 @@
       <c r="M110" s="45"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="C111" s="45"/>
       <c r="D111" s="45"/>
       <c r="E111" s="45"/>
@@ -5391,7 +5396,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C112" s="45"/>
       <c r="D112" s="45"/>
@@ -5407,7 +5412,7 @@
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C113" s="45"/>
       <c r="D113" s="45"/>
@@ -5437,13 +5442,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{C0C69636-610E-44AF-88AB-8356C1919D91}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A636202A-C236-42C7-AC5F-5B7B019C0B61}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{A2E8A64D-227F-49AB-B62B-33900162331D}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{55B806C9-5147-4440-A08B-D12244987627}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{453E8DCB-001E-42E1-B1F5-837446ACC954}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{9B11ACC4-BCEC-4B9B-B514-C8E25B95CF8B}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{EFE0D12D-5194-4ABF-94B5-FCFB06759CCA}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{C5BA616D-A130-4130-8C55-0FBB93EBADD5}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{C8A27D80-F831-4248-9EC0-2A15196E4E99}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{359DEAC1-26FE-4FD4-9F13-8DF8B2EFE6F3}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{8CC5C6B0-A00E-4E5A-A303-8311C97A14B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" orientation="portrait" r:id="rId2"/>
+  <pageSetup scale="83" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/DDAf_2023_Tableau_annexe_Tab25.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F923EE2-EE4D-445E-86D9-975CBF33DE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4E4B90A-FAB3-41D0-9BCE-9E59906692AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{D194B819-591A-4DD9-949A-0E4ACF43C9F3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{E0343EDA-08EF-4F88-93E5-6FAD90706337}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab25" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab25'!$A$1:$E$103</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1262,20 +1262,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F7C092-5929-4FB5-86C1-CB8A1D683D62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1434C68-6B9F-49CA-9AAD-294C9287D613}">
   <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1291,7 +1291,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="74" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="72" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>3919.4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>2962.9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>145.6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>1491.6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>29</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>217919.3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>31</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>2411.5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>3866.2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>35</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>232889.2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>37</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>2480.3000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>43</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>193.6</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>45</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>2227.8000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>47</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>49</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>558.5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>51</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>1406.5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>53</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>58.4</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>35</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>7031</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>56</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>58</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>60</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>309.7</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>62</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>64</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>714.8</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>66</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>936.1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>68</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>2211.1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>70</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>219.3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>72</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>364.4</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>74</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>315.8</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>76</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>471.3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>78</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>5308.1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>80</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>2671.7</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>82</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>35</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>13732.6</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>85</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>38567.800000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>87</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>73516.899999999994</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>89</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>18642.099999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>91</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>762.1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>93</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>28510.6</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>95</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>9168.7999999999993</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
         <v>35</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>169168.3</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>98</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>506.2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>100</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>412.3</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>102</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>283.39999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>104</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>3560.8</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>106</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>264.5</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>108</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>6371.5</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>110</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>552.29999999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>112</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>114</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>246.3</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>116</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>1463.8</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>118</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>646.79999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>120</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>13549.4</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>122</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>3246.8</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>124</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>126</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>231.8</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="18"/>
       <c r="B61" s="19" t="s">
         <v>128</v>
@@ -3749,7 +3749,7 @@
         <v>31405.1</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26"/>
       <c r="B62" s="27" t="s">
         <v>129</v>
@@ -3788,7 +3788,7 @@
         <v>454226.2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26"/>
       <c r="B63" s="30" t="s">
         <v>130</v>
@@ -3827,7 +3827,7 @@
         <v>12984473.9</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="33"/>
       <c r="B64" s="34" t="s">
         <v>131</v>
@@ -3866,7 +3866,7 @@
         <v>350513.6</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="33"/>
       <c r="B65" s="27" t="s">
         <v>132</v>
@@ -3905,7 +3905,7 @@
         <v>7589679.4000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="33"/>
       <c r="B66" s="37" t="s">
         <v>133</v>
@@ -3944,7 +3944,7 @@
         <v>13438700.1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="33"/>
       <c r="B67" s="40" t="s">
         <v>134</v>
@@ -3983,7 +3983,7 @@
         <v>118531.4</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="33"/>
       <c r="B68" s="27" t="s">
         <v>135</v>
@@ -4022,7 +4022,7 @@
         <v>167752.1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="33"/>
       <c r="B69" s="27" t="s">
         <v>136</v>
@@ -4061,7 +4061,7 @@
         <v>4239.8999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="33"/>
       <c r="B70" s="27" t="s">
         <v>137</v>
@@ -4100,7 +4100,7 @@
         <v>11169.7</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="33"/>
       <c r="B71" s="27" t="s">
         <v>138</v>
@@ -4139,7 +4139,7 @@
         <v>31405.1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="33"/>
       <c r="B72" s="27" t="s">
         <v>139</v>
@@ -4178,7 +4178,7 @@
         <v>7229.5</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="33"/>
       <c r="B73" s="27" t="s">
         <v>140</v>
@@ -4217,7 +4217,7 @@
         <v>239185.8</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="33"/>
       <c r="B74" s="27" t="s">
         <v>140</v>
@@ -4256,7 +4256,7 @@
         <v>95651.4</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="33"/>
       <c r="B75" s="37" t="s">
         <v>141</v>
@@ -4295,7 +4295,7 @@
         <v>5814.7</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="33"/>
       <c r="B76" s="40" t="s">
         <v>142</v>
@@ -4334,7 +4334,7 @@
         <v>707471.8</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="33"/>
       <c r="B77" s="27" t="s">
         <v>143</v>
@@ -4373,7 +4373,7 @@
         <v>171566.2</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="33"/>
       <c r="B78" s="27" t="s">
         <v>143</v>
@@ -4412,7 +4412,7 @@
         <v>738923.9</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="33"/>
       <c r="B79" s="37" t="s">
         <v>144</v>
@@ -4451,7 +4451,7 @@
         <v>3676763.9</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="33"/>
       <c r="B80" s="40" t="s">
         <v>145</v>
@@ -4490,7 +4490,7 @@
         <v>67032.5</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="33"/>
       <c r="B81" s="27" t="s">
         <v>146</v>
@@ -4529,7 +4529,7 @@
         <v>1628224.2</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="33"/>
       <c r="B82" s="27" t="s">
         <v>147</v>
@@ -4568,7 +4568,7 @@
         <v>387193.7</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="33"/>
       <c r="B83" s="37" t="s">
         <v>148</v>
@@ -4607,7 +4607,7 @@
         <v>11356249.699999999</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="33"/>
       <c r="B84" s="40" t="s">
         <v>149</v>
@@ -4646,7 +4646,7 @@
         <v>15857.9</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="33"/>
       <c r="B85" s="27" t="s">
         <v>150</v>
@@ -4685,7 +4685,7 @@
         <v>16165.9</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="33"/>
       <c r="B86" s="27" t="s">
         <v>151</v>
@@ -4724,7 +4724,7 @@
         <v>194217.2</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="33"/>
       <c r="B87" s="27" t="s">
         <v>152</v>
@@ -4763,7 +4763,7 @@
         <v>1967633.5</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="33"/>
       <c r="B88" s="27" t="s">
         <v>153</v>
@@ -4802,7 +4802,7 @@
         <v>243786.7</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="33"/>
       <c r="B89" s="27" t="s">
         <v>154</v>
@@ -4841,7 +4841,7 @@
         <v>7105202</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="33"/>
       <c r="B90" s="37" t="s">
         <v>155</v>
@@ -4880,7 +4880,7 @@
         <v>3888716.2</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="33"/>
       <c r="B91" s="40" t="s">
         <v>156</v>
@@ -4919,7 +4919,7 @@
         <v>27170.9</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="33"/>
       <c r="B92" s="27" t="s">
         <v>157</v>
@@ -4958,7 +4958,7 @@
         <v>75913.7</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="33"/>
       <c r="B93" s="27" t="s">
         <v>158</v>
@@ -4997,7 +4997,7 @@
         <v>3079.7</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="33"/>
       <c r="B94" s="27" t="s">
         <v>159</v>
@@ -5036,7 +5036,7 @@
         <v>59392.2</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="33"/>
       <c r="B95" s="27" t="s">
         <v>160</v>
@@ -5075,7 +5075,7 @@
         <v>13035.2</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="33"/>
       <c r="B96" s="37" t="s">
         <v>161</v>
@@ -5114,85 +5114,85 @@
         <v>215124.7</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="33"/>
       <c r="B97" s="40" t="s">
         <v>162</v>
       </c>
       <c r="C97" s="41">
-        <v>392794.4</v>
+        <v>349509.3</v>
       </c>
       <c r="D97" s="42">
-        <v>16051.5</v>
+        <v>14999.3</v>
       </c>
       <c r="E97" s="42">
-        <v>39040.1</v>
+        <v>35106.699999999997</v>
       </c>
       <c r="F97" s="42">
-        <v>158338.20000000001</v>
+        <v>140551.79999999999</v>
       </c>
       <c r="G97" s="42">
-        <v>97349.6</v>
+        <v>87872.3</v>
       </c>
       <c r="H97" s="42">
-        <v>6502.7</v>
+        <v>5411.9</v>
       </c>
       <c r="I97" s="42">
-        <v>3286</v>
+        <v>2890.9</v>
       </c>
       <c r="J97" s="42">
         <v>107</v>
       </c>
       <c r="K97" s="42">
-        <v>2926.4</v>
+        <v>2865</v>
       </c>
       <c r="L97" s="42">
-        <v>154993.1</v>
+        <v>137867.29999999999</v>
       </c>
       <c r="M97" s="41">
-        <v>69186.600000000006</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>59695.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="33"/>
       <c r="B98" s="37" t="s">
         <v>163</v>
       </c>
       <c r="C98" s="38">
-        <v>1286621.1000000001</v>
+        <v>1119955.2</v>
       </c>
       <c r="D98" s="39">
-        <v>78152.3</v>
+        <v>64598.6</v>
       </c>
       <c r="E98" s="39">
-        <v>235885.6</v>
+        <v>218295.9</v>
       </c>
       <c r="F98" s="39">
-        <v>306949</v>
+        <v>264579.8</v>
       </c>
       <c r="G98" s="39">
-        <v>185299.4</v>
+        <v>168529.9</v>
       </c>
       <c r="H98" s="39">
-        <v>40111.599999999999</v>
+        <v>39406.1</v>
       </c>
       <c r="I98" s="39">
-        <v>21271.7</v>
+        <v>20501.7</v>
       </c>
       <c r="J98" s="39">
         <v>42</v>
       </c>
       <c r="K98" s="39">
-        <v>19670.7</v>
+        <v>19302.599999999999</v>
       </c>
       <c r="L98" s="39">
-        <v>286562.90000000002</v>
+        <v>244638.2</v>
       </c>
       <c r="M98" s="38">
-        <v>399272.9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+        <v>324618.90000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="43"/>
       <c r="B99" s="44"/>
       <c r="C99" s="29"/>
@@ -5207,7 +5207,7 @@
       <c r="L99" s="29"/>
       <c r="M99" s="29"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>164</v>
       </c>
@@ -5223,7 +5223,7 @@
       <c r="L100" s="45"/>
       <c r="M100" s="45"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>165</v>
       </c>
@@ -5239,7 +5239,7 @@
       <c r="L101" s="45"/>
       <c r="M101" s="45"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>166</v>
       </c>
@@ -5255,7 +5255,7 @@
       <c r="L102" s="45"/>
       <c r="M102" s="45"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>167</v>
       </c>
@@ -5271,7 +5271,7 @@
       <c r="L103" s="45"/>
       <c r="M103" s="45"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>168</v>
       </c>
@@ -5287,7 +5287,7 @@
       <c r="L104" s="45"/>
       <c r="M104" s="45"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>169</v>
       </c>
@@ -5303,7 +5303,7 @@
       <c r="L105" s="45"/>
       <c r="M105" s="45"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C106" s="45"/>
       <c r="D106" s="45"/>
       <c r="E106" s="45"/>
@@ -5316,7 +5316,7 @@
       <c r="L106" s="45"/>
       <c r="M106" s="45"/>
     </row>
-    <row r="107" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="46" t="s">
         <v>170</v>
       </c>
@@ -5332,7 +5332,7 @@
       <c r="L107" s="45"/>
       <c r="M107" s="45"/>
     </row>
-    <row r="108" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="46"/>
       <c r="C108" s="45"/>
       <c r="D108" s="45"/>
@@ -5346,7 +5346,7 @@
       <c r="L108" s="45"/>
       <c r="M108" s="45"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>173</v>
       </c>
@@ -5362,7 +5362,7 @@
       <c r="L109" s="45"/>
       <c r="M109" s="45"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>174</v>
       </c>
@@ -5378,7 +5378,7 @@
       <c r="L110" s="45"/>
       <c r="M110" s="45"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>175</v>
       </c>
@@ -5394,7 +5394,7 @@
       <c r="L111" s="45"/>
       <c r="M111" s="45"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>171</v>
       </c>
@@ -5410,7 +5410,7 @@
       <c r="L112" s="45"/>
       <c r="M112" s="45"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>172</v>
       </c>
@@ -5426,7 +5426,7 @@
       <c r="L113" s="45"/>
       <c r="M113" s="45"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="45"/>
       <c r="D114" s="45"/>
@@ -5442,12 +5442,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{9B11ACC4-BCEC-4B9B-B514-C8E25B95CF8B}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{EFE0D12D-5194-4ABF-94B5-FCFB06759CCA}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{C5BA616D-A130-4130-8C55-0FBB93EBADD5}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{C8A27D80-F831-4248-9EC0-2A15196E4E99}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{359DEAC1-26FE-4FD4-9F13-8DF8B2EFE6F3}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{8CC5C6B0-A00E-4E5A-A303-8311C97A14B1}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{45C6303A-ED93-47A9-9CF5-A50C6277EE93}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{74A517BD-9CF3-408D-AC55-CB2645C854D1}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{C39B618B-5EA7-422E-920E-85E1C45B8650}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{28659593-B9E9-47CC-8261-1D5EC2125766}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{7096DE16-80AD-4F30-A969-EA70F5C79AC9}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{59E3CFD2-A92F-4648-8306-85ABD684D86A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId7"/>
